--- a/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 8,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>6,01; 16,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 5,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 15,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 4,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>20,38; 37,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 3,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 9,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 4,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,2; 23,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 5,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>8,52; 16,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,55; 5,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 10,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 6,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>20,14; 32,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 3,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 6,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 5,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>15,29; 22,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,94; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,08</t>
+          <t>3,06; 8,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,99</t>
+          <t>12,54; 22,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>3,04; 6,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 30,23</t>
+          <t>5,35; 9,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 9,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>16,82; 26,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,4; 4,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 16,0</t>
+          <t>4,72; 8,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 6,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,71</t>
+          <t>15,88; 22,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,48</t>
+          <t>2,52; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 17,03</t>
+          <t>1,64; 9,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,52</t>
+          <t>1,53; 4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,3</t>
+          <t>13,18; 22,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,0</t>
+          <t>3,58; 7,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 35,9</t>
+          <t>10,27; 15,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,12</t>
+          <t>3,72; 8,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,63</t>
+          <t>21,91; 34,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,98</t>
+          <t>3,3; 5,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,34</t>
+          <t>4,0; 11,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,84</t>
+          <t>2,93; 5,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,25</t>
+          <t>18,8; 27,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,01</t>
+          <t>5,04; 9,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 17,28</t>
+          <t>7,08; 13,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,1</t>
+          <t>3,87; 8,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,61</t>
+          <t>8,78; 17,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,22</t>
+          <t>6,33; 10,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,98; 31,7</t>
+          <t>15,3; 21,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,45</t>
+          <t>6,06; 11,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,57</t>
+          <t>24,44; 36,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,79</t>
+          <t>6,26; 9,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 22,48</t>
+          <t>12,0; 16,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,29</t>
+          <t>5,48; 9,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,13</t>
+          <t>18,21; 26,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,38</t>
+          <t>2,86; 6,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,48; 22,22</t>
+          <t>2,05; 6,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,03</t>
+          <t>1,52; 4,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,29</t>
+          <t>11,62; 28,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,43</t>
+          <t>5,71; 9,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 27,38</t>
+          <t>2,95; 16,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,97</t>
+          <t>5,68; 10,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,8</t>
+          <t>20,32; 36,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,67</t>
+          <t>4,87; 7,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,56</t>
+          <t>3,34; 10,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,51</t>
+          <t>3,96; 6,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,06</t>
+          <t>18,42; 29,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>32,07%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,7</t>
+          <t>3,22; 7,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,1; 22,72</t>
+          <t>5,89; 13,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,47</t>
+          <t>3,9; 8,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,5</t>
+          <t>14,58; 29,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,95</t>
+          <t>10,8; 15,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,13; 34,55</t>
+          <t>12,52; 19,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,07</t>
+          <t>7,09; 12,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,61</t>
+          <t>31,7; 45,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,26</t>
+          <t>8,26; 11,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,01; 27,12</t>
+          <t>10,85; 16,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,6</t>
+          <t>6,01; 9,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 5,97</t>
+          <t>26,8; 37,2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>22,22%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,53</t>
+          <t>3,34; 4,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,15</t>
+          <t>3,66; 6,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,31</t>
+          <t>2,91; 4,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,59</t>
+          <t>13,56; 17,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,98</t>
+          <t>6,29; 7,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,86; 36,71</t>
+          <t>7,98; 12,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,47</t>
+          <t>5,61; 7,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,27</t>
+          <t>26,0; 30,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,88</t>
+          <t>5,09; 6,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,04; 26,44</t>
+          <t>6,59; 9,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,44</t>
+          <t>4,49; 5,67</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,29</t>
+          <t>20,6; 23,9</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>18,37%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>27,8%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>12,57%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>23,67%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 4,47</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 27,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 6,84</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 5,08</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 10,74</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>20,88; 36,76</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 16,59</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 10,41</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 6,86</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>18,75; 30,37</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 11,24</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 7,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>21,36%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>38,55%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>32,07%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 8,19</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>15,03; 29,9</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 12,05</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 6,62</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 12,26</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>32,45; 46,13</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>14,0; 19,24</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>10,12; 13,97</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 9,68</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>27,03; 37,45</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 15,67</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 10,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>15,44%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>28,21%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>22,17%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 4,4</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>13,51; 17,49</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 7,11</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,83</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 7,78</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>25,66; 30,65</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>10,75; 13,0</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 6,88</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 5,88</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>20,52; 23,82</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 9,94</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 5,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Enfermedad mental común</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6562</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14080</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17371</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21496</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8150</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23934</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>490; 2818</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1812; 20828</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1438; 8476</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3888; 10557</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>489; 3126</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6119; 27824</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1842; 8055</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12541; 22826</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1491; 4581</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10689; 39735</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4686; 14509</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17927; 30090</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14930</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21033</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32394</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23844</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13015</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47324</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>388; 2137</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>441; 9348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2079; 9390</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10536; 20799</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>981; 3587</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8946; 34232</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4102; 13628</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25690; 40864</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1790; 4807</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13397; 35563</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8318; 20424</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38408; 57456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16726</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7848</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23455</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17172</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40318</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25020</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>892; 3303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9503; 27499</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4246; 13407</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17470; 30883</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2969; 6680</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17217; 32032</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11434; 23842</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22105; 35090</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4622; 9063</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29854; 53151</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18024; 34111</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43001; 62035</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5229</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32667</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7832</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20749</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6948</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51508</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15569</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32921</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84176</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23401</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53670</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3476; 7502</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10304; 60202</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4540; 12873</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15512; 27036</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4949; 9690</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41587; 63400</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10382; 23519</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26189; 41085</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9116; 15271</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>41253; 116883</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16882; 32402</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44600; 64636</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33273</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14159</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12504</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11920</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58711</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21664</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34573</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>91984</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35823</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>47077</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6359; 12162</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23943; 44269</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9074; 20867</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8601; 17575</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9290; 15216</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>48804; 69662</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15387; 29462</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28314; 42532</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17095; 25720</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>78880; 107654</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26773; 46847</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38945; 57606</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7853</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12621</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8852</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14914</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24560</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13522</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>47055</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19595</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37180</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3074; 7109</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4245; 13080</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2792; 7560</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7986; 19363</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6573; 11273</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13362; 75806</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10726; 20351</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17953; 32555</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10827; 16774</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22046; 72440</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14758; 25491</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28927; 46330</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4720</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13900</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8276</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14741</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17506</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37587</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19721</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>43935</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>22226</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>51487</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27997</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>58676</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3097; 7229</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8936; 20707</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5745; 11900</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10059; 20305</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14407; 21006</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29378; 46886</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15089; 25926</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>36128; 52079</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18946; 26373</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>41953; 62950</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21625; 34465</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>49027; 68072</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>27769</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>114648</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>51799</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>105562</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>53199</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>245713</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>101202</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>214319</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>80968</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>360361</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>153001</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>319881</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23187; 33112</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>76935; 143699</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>42629; 64100</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>92362; 119115</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>47582; 59832</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>177983; 284991</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>87793; 117005</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>197140; 231501</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>73905; 88941</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>285686; 417376</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>136009; 171665</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>296477; 343978</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,49</t>
+          <t>1,14; 5,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,82</t>
+          <t>0,82; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 16,32</t>
+          <t>5,95; 16,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,0</t>
+          <t>0,7; 3,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 15,09</t>
+          <t>3,25; 14,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 37,09</t>
+          <t>20,19; 35,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,66</t>
+          <t>1,26; 3,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,45</t>
+          <t>2,58; 9,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 23,84</t>
+          <t>14,68; 24,39</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,1</t>
+          <t>0,78; 3,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,08</t>
+          <t>0,21; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,82</t>
+          <t>8,45; 16,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,66</t>
+          <t>1,51; 4,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,89</t>
+          <t>2,82; 10,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 32,04</t>
+          <t>20,03; 31,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,63</t>
+          <t>1,34; 3,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,54</t>
+          <t>2,37; 6,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 22,87</t>
+          <t>15,41; 22,82</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,48</t>
+          <t>1,05; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,85</t>
+          <t>3,18; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 22,16</t>
+          <t>12,48; 21,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,83</t>
+          <t>2,6; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,95</t>
+          <t>5,19; 9,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 26,7</t>
+          <t>16,92; 27,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,7</t>
+          <t>2,09; 4,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,4</t>
+          <t>4,67; 8,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 22,91</t>
+          <t>15,99; 23,12</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,43</t>
+          <t>2,3; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 9,6</t>
+          <t>1,78; 9,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,98</t>
+          <t>12,72; 23,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,02</t>
+          <t>3,29; 6,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,66</t>
+          <t>10,35; 15,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 34,37</t>
+          <t>21,73; 34,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,53</t>
+          <t>3,13; 5,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,33</t>
+          <t>4,18; 11,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 27,25</t>
+          <t>18,89; 27,13</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,64</t>
+          <t>4,9; 9,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,09</t>
+          <t>7,15; 13,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 17,93</t>
+          <t>8,2; 17,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,37</t>
+          <t>6,05; 10,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 21,85</t>
+          <t>15,24; 22,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 36,71</t>
+          <t>24,12; 37,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,42</t>
+          <t>5,9; 8,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,38</t>
+          <t>11,91; 16,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 26,93</t>
+          <t>18,04; 27,13</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,62</t>
+          <t>2,73; 6,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,31</t>
+          <t>1,87; 6,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 28,19</t>
+          <t>12,05; 27,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,8</t>
+          <t>6,46; 11,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 16,75</t>
+          <t>1,9; 16,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 36,84</t>
+          <t>20,16; 37,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,54</t>
+          <t>5,23; 8,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,98</t>
+          <t>2,67; 11,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,42; 29,5</t>
+          <t>18,41; 30,03</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,52</t>
+          <t>2,61; 6,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,64</t>
+          <t>5,9; 13,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,58; 29,42</t>
+          <t>14,64; 30,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,75</t>
+          <t>11,5; 16,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,98</t>
+          <t>12,75; 20,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,7; 45,7</t>
+          <t>31,92; 46,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,49</t>
+          <t>8,27; 11,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,29</t>
+          <t>10,89; 16,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,8; 37,2</t>
+          <t>27,39; 38,1</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,34; 4,77</t>
+          <t>3,16; 4,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,84</t>
+          <t>3,63; 6,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,49</t>
+          <t>13,61; 17,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,91</t>
+          <t>6,02; 7,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,77</t>
+          <t>7,76; 12,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,0; 30,53</t>
+          <t>25,84; 30,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,13</t>
+          <t>4,84; 5,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,63</t>
+          <t>6,72; 9,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,6; 23,9</t>
+          <t>20,71; 23,89</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>490; 2818</t>
+          <t>878; 4139</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1812; 20828</t>
+          <t>1944; 21397</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3888; 10557</t>
+          <t>3847; 10772</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>489; 3126</t>
+          <t>461; 2285</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6119; 27824</t>
+          <t>5989; 26985</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12541; 22826</t>
+          <t>12427; 22144</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1491; 4581</t>
+          <t>1796; 5376</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10689; 39735</t>
+          <t>10833; 40181</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17927; 30090</t>
+          <t>18528; 30784</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>388; 2137</t>
+          <t>579; 2462</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>441; 9348</t>
+          <t>488; 10209</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10536; 20799</t>
+          <t>10450; 20844</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>981; 3587</t>
+          <t>1046; 3395</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8946; 34232</t>
+          <t>8853; 34501</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25690; 40864</t>
+          <t>25545; 40070</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1790; 4807</t>
+          <t>1923; 4791</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13397; 35563</t>
+          <t>12911; 36554</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38408; 57456</t>
+          <t>38715; 57333</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>4361</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>892; 3303</t>
+          <t>1097; 3702</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9503; 27499</t>
+          <t>9868; 27273</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17470; 30883</t>
+          <t>17400; 30596</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2969; 6680</t>
+          <t>2888; 6388</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17217; 32032</t>
+          <t>16708; 31530</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22105; 35090</t>
+          <t>22235; 35647</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4622; 9063</t>
+          <t>4495; 8813</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29854; 53151</t>
+          <t>29572; 52765</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43001; 62035</t>
+          <t>43296; 62616</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>6792</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3476; 7502</t>
+          <t>3324; 6996</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10304; 60202</t>
+          <t>11136; 58187</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15512; 27036</t>
+          <t>14963; 27194</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4949; 9690</t>
+          <t>5011; 9304</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41587; 63400</t>
+          <t>41898; 63196</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26189; 41085</t>
+          <t>25971; 41535</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9116; 15271</t>
+          <t>9289; 15054</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41253; 116883</t>
+          <t>43099; 118220</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>44600; 64636</t>
+          <t>44797; 64350</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8964</t>
+          <t>8407</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11920</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20885</t>
+          <t>20261</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6359; 12162</t>
+          <t>6330; 11794</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23943; 44269</t>
+          <t>24193; 45212</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8601; 17575</t>
+          <t>8038; 17470</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9290; 15216</t>
+          <t>9203; 15330</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>48804; 69662</t>
+          <t>48602; 70153</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28314; 42532</t>
+          <t>27946; 43017</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17095; 25720</t>
+          <t>16607; 24412</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>78880; 107654</t>
+          <t>78272; 108552</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>38945; 57606</t>
+          <t>38583; 58032</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>4380</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>9909</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3074; 7109</t>
+          <t>2849; 6664</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4245; 13080</t>
+          <t>3886; 13157</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7986; 19363</t>
+          <t>8275; 18832</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6573; 11273</t>
+          <t>7484; 12888</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13362; 75806</t>
+          <t>8578; 75762</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17953; 32555</t>
+          <t>17809; 33087</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10827; 16774</t>
+          <t>11512; 17860</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22046; 72440</t>
+          <t>17623; 73151</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>28927; 46330</t>
+          <t>28917; 47160</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>18056</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22226</t>
+          <t>21792</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3097; 7229</t>
+          <t>2328; 5492</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8936; 20707</t>
+          <t>8961; 20697</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10059; 20305</t>
+          <t>10101; 21066</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>14407; 21006</t>
+          <t>15165; 21893</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>29378; 46886</t>
+          <t>29934; 47248</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>36128; 52079</t>
+          <t>36377; 52712</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18946; 26373</t>
+          <t>18266; 25522</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>41953; 62950</t>
+          <t>42097; 62032</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>49027; 68072</t>
+          <t>50121; 69710</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>53199</t>
+          <t>53978</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>80968</t>
+          <t>80920</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23187; 33112</t>
+          <t>22825; 31421</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>76935; 143699</t>
+          <t>76267; 142202</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>92362; 119115</t>
+          <t>92709; 122105</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>47582; 59832</t>
+          <t>48042; 60335</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>177983; 284991</t>
+          <t>173172; 282781</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>197140; 231501</t>
+          <t>195926; 232223</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>73905; 88941</t>
+          <t>73612; 88659</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>285686; 417376</t>
+          <t>291138; 413151</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>296477; 343978</t>
+          <t>298145; 343915</t>
         </is>
       </c>
     </row>
